--- a/case/api-data.xlsx
+++ b/case/api-data.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>run</t>
   </si>
@@ -72,6 +73,60 @@
   <si>
     <t xml:space="preserve">$.body.data.agentId=0
 $.body.data.permissions.report[0]=view
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PYTHON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">$.body.data.agentId=0
+$.body.data.permissions.report1[0]=view
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -164,6 +219,1007 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JAVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PYTHON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHELL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2017812768"/>
+        <c:axId val="2017819296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2017812768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017819296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2017819296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017812768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,15 +1512,16 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="49.6328125" customWidth="1"/>
-    <col min="5" max="6" width="33" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
     <col min="7" max="7" width="51" customWidth="1"/>
     <col min="8" max="8" width="69.1796875" customWidth="1"/>
   </cols>
@@ -529,15 +1586,29 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -548,4 +1619,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>